--- a/biology/Botanique/Curare_en_Amazonie/Curare_en_Amazonie.xlsx
+++ b/biology/Botanique/Curare_en_Amazonie/Curare_en_Amazonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le curare est un poison dont les Indiens de l'Amazonie (Brésil, Bolivie, Pérou, Guyane, Équateur, Panama, Colombie, Venezuela) imprègnent les pointes de leurs flèches pour la chasse, et qui entraîne la mort par asphyxie.
 On a longtemps cherché la composition exacte du curare, qui peut comprendre de nombreux ingrédients. Plusieurs expéditions en Amazonie furent entreprises en ce but. Différents poisons portaient ce nom, mais on ne savait pas s'il s'agissait des mêmes plantes. Les premiers récits de voyageurs pourraient décrire des poisons mortels autres que le curare, (qui n'est pas utilisé pour la guerre, mais pour la chasse), comme celui provenant du mancenillier (Hippomane mancinella L.), dont le latex est très toxique et que les indiens mélangeaient à du venin de crapaud (Vellard). Ce mot peut aussi désigner des curares d'origine animale.
@@ -512,9 +524,11 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une légende d'une tribu indienne raconte que c'est en observant un aigle se faire les griffes sur l'écorce d'une liane avant de fondre sur sa proie qu'ils découvrirent le secret du curare, et que c'est ainsi que depuis ils en enduisent la pointe de leurs flèches[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une légende d'une tribu indienne raconte que c'est en observant un aigle se faire les griffes sur l'écorce d'une liane avant de fondre sur sa proie qu'ils découvrirent le secret du curare, et que c'est ainsi que depuis ils en enduisent la pointe de leurs flèches,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Dénominations en Amazonie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « curare » viendrait du mot caraïbe k-urary, « là où il vient, on tombe »[3]: Selon Martius, de « our » et « ar », venir et tomber en guarani. Autre étymologie proposée mais tout à fait incertaine, (Barbara Rodrigues), la contraction en tupi du mot « oiseau » (Uira) et du mot « liquide » (y) pour « liquide qui tue les oiseaux ».
-Le curare (Urari) varie suivant les tribus amazoniennes : il est également connu comme Bejuco de Mavacure, Ampi, Kurari, Woorari, Woorara, Woorali, Wourali, Wouralia, Ourare, Ourari, Urare, Urari (ce qui signifie en galibi : « la mort qui tue tout bas ») et Uirary,  Wilalakayevi pour la liane Sciadotenia (ce qui signifie, « branches » et « rebrousser de chemin » ou « changer de direction » car ses branches changent de direction), Supai Hausca (corde du diable) pour la liane Strychnos[4] et wayana Ulali,  Wilali pour la liane Strychnos, ce qui signifie « arbre »[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « curare » viendrait du mot caraïbe k-urary, « là où il vient, on tombe »: Selon Martius, de « our » et « ar », venir et tomber en guarani. Autre étymologie proposée mais tout à fait incertaine, (Barbara Rodrigues), la contraction en tupi du mot « oiseau » (Uira) et du mot « liquide » (y) pour « liquide qui tue les oiseaux ».
+Le curare (Urari) varie suivant les tribus amazoniennes : il est également connu comme Bejuco de Mavacure, Ampi, Kurari, Woorari, Woorara, Woorali, Wourali, Wouralia, Ourare, Ourari, Urare, Urari (ce qui signifie en galibi : « la mort qui tue tout bas ») et Uirary,  Wilalakayevi pour la liane Sciadotenia (ce qui signifie, « branches » et « rebrousser de chemin » ou « changer de direction » car ses branches changent de direction), Supai Hausca (corde du diable) pour la liane Strychnos et wayana Ulali,  Wilali pour la liane Strychnos, ce qui signifie « arbre »,.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>La découverte du curare en Amazonie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			El Orinoco ilustrado y defendido du Père José Gumilla.
@@ -609,12 +627,14 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Loganiaceae (liane Strychnos, espèces différentes suivant les régions : (Strychnos guianensis, Strychnos castaneaei, Strychnos crevauxii, Strychnos subcordata, Strychnos toxifera, Strychnos Jobertiana, Strychnos Yapurensis[27]), Sciadotenia toxifera (Krukoff and A. C. Smith)[28] (France)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Loganiaceae (liane Strychnos, espèces différentes suivant les régions : (Strychnos guianensis, Strychnos castaneaei, Strychnos crevauxii, Strychnos subcordata, Strychnos toxifera, Strychnos Jobertiana, Strychnos Yapurensis), Sciadotenia toxifera (Krukoff and A. C. Smith) (France)
 Menispermaceae  (Abuta, Chondodendron, Chondodendron tomentosum et Curarea  (Krukoff), Macriphylla et Platyphylla, Abuta imene, Abuta ruhescens) parfois employé seul, sans Strychnos.
-Anomospermum grandiflora[29]
-Autres extraits de plantes ex.Phytolaccas, Paullinia sorbilis, Paullinia cururu L. Aristoloches[30]. Aracées (Dieffenbachia), Pipéracées : Arapoucani, Aliméré, Pot peu (faux sahorendi)[31]. Clathrotropis glaucophylla Tabac, Piments (Capsicum brasilianum)[32]
+Anomospermum grandiflora
+Autres extraits de plantes ex.Phytolaccas, Paullinia sorbilis, Paullinia cururu L. Aristoloches. Aracées (Dieffenbachia), Pipéracées : Arapoucani, Aliméré, Pot peu (faux sahorendi). Clathrotropis glaucophylla Tabac, Piments (Capsicum brasilianum)
 Plantes épaississantes (Latex d'Euphorbes et Euphorbia cotinifolia), tapioca.</t>
         </is>
       </c>
@@ -645,99 +665,249 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification géographique
-Le curare, liquide noir brun, fut alors[34] classé en quatre ou cinq variétés selon les origines territoriales par Gustave Planchon :
+          <t>Classification géographique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le curare, liquide noir brun, fut alors classé en quatre ou cinq variétés selon les origines territoriales par Gustave Planchon :
  Curare du Haut-Amazone : à base de la liane Strychnos Castelnoeana, Cocculus toxicoferus et ensuite de plantes pulverisées du genre Piper comme le Dieffenbachia Seguine ou le Petiveria alliacea, le Yapurensis, le Guenyenneta, Niagua beremba et préparé par les indiens Yamcos, Orjones, Yagos, Ticunas, Pebas, Miranhas, Kueretou, etc.
 Curare de l'Orénoque : chez les indiens Piaroas' et Moquiretares : deux espèces de curare, le curare faible préparé avec le Stychnos Gubleri  et d'autres plantes comme le Cariri, Pitaton, Jare, Hueva et le curare fort.
 Curare de Guyane française : préparé par le tribus Trios et Roucouyennes près de la rivière Parou, à base de la plante Ourari ou Strychnos Crevauxii et de plantes accessoires Piperitées comme l'Aracoupani, Pot-Peu, Alimière.
-Curare de la Guyane anglaise : Indiens Macuxi, à base de Strycnhos toxifera et de la plante Arimaru, ensuite des plantes épaississantes : Volkarimo, Tararemu, Maramu, Tarireng[35].
-Curare de chondodendron :Bolivie, Panama, Colombie,Pérou, où pousse cette plante.
-Classification botanique
-Le curare est produit par les Loganiaceae (Strychnos species) et Menispermaceae (Abuta, Chondodendron tomentosum (Ruiz&amp;Pavon), et Curarea (Krukoff)
+Curare de la Guyane anglaise : Indiens Macuxi, à base de Strycnhos toxifera et de la plante Arimaru, ensuite des plantes épaississantes : Volkarimo, Tararemu, Maramu, Tarireng.
+Curare de chondodendron :Bolivie, Panama, Colombie,Pérou, où pousse cette plante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification botanique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le curare est produit par les Loganiaceae (Strychnos species) et Menispermaceae (Abuta, Chondodendron tomentosum (Ruiz&amp;Pavon), et Curarea (Krukoff)
 On a aussi autrefois groupé les différentes sortes de curare en trois séries :
 C. produit par le Vomiquier vénéneux (Strychnos).
 C. produit par le  Cocculus toxifère et par le Vomiquier de Castelnau (Strychnos).
 C. produit par le Vomiquier violent et par les deux Rouhamons de la Guyane ( Strychnos guianensis ), R. curare.
 Le premier est préparé par les Macusis, les Arécunas et les Wapishanas ; le second par les Ticunas, les Pebas, les Yaguas et les Orégones, et le troisième par les Guinans et les Maiongkongs. De nombreuses autres tribus indiennes utilisent du poison pour le flèches empoisonnées tels les Jivaros, Makiritari et Aura, Kachúyana, Yanomamis, Nambikwaras, Cabixi, Pareci (Nord Amazonie), Chiquitos (Bolivie), Puelches etc. Dans le Haut-Amazone il est toujours préparé avec une liane Strychnos et une plante Menispermacée comme l'Abuta ou Cocculus Imena et dans le sud (Nambikwara) par une seule liane Strychnos aux petites feuilles, non identifiée.
-Classification par récipient
-On distingue depuis Rudolf Böhm (de) trois sortes de curare :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classification par récipient</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue depuis Rudolf Böhm (de) trois sortes de curare :
 Curares en calebasse (le plus puissant) (Curare de Strychnos) ;
 Curare en tubes de bambou (Curare de Chenodendron) ;
 Curares en pots (mélange des deux).
-L'Ollita est la marmite à curare aapajlu en yucuna)[36].
+L'Ollita est la marmite à curare aapajlu en yucuna).
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation, fabrication et commerce indigène</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Préparation du curare
-Sa préparation était entourée de mystères, d'incantations et les recettes gardées secrètes par les sorciers. On disait que les vieilles femmes qui le préparaient mourraient ensuite des émanations toxiques émanant du curare. Chez les Nambikwara, le chef de la tribu est le seul à préparer le curare[37]. Il est ailleurs préparé par un ancien, le « maître du poison » (amo del curare).
-Sont utilisées dans la préparation du curare : Les feuilles (curare de feuilles par exemple du S. toxifera et S. lethalis des Ticunas[38]), ou bien l'écorce des tiges râpées (curare d'écorce ou Curare de Bejuco ) ou encore l'écorce des racines (curare de racine ou Curare de Raiz). En général, on fait infuser l'écorce coupée en petits morceaux ou broyée ; on concentre la liqueur afin que le curare devienne assez épais pour s'attacher aux flèches ; dans le même but, on y ajoute aussi un suc gluant et mucilagineux, fourni par une plante bulbeuse appelée Muramu ou par un arbre nommé Kiracaguero, suivant Humboldt. Quelques auteurs disent qu'on y introduisait également du venin de certains serpents, une tête de grenouille, des fourmis, des insectes (Les indiens Matis invoquent les mygales et les fourmis (paraponera clavata) dans la préparation du curare, sans toutefois les incorporer au poison[39]), des piments, des toxines de grenouilles[40]
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Préparation du curare</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sa préparation était entourée de mystères, d'incantations et les recettes gardées secrètes par les sorciers. On disait que les vieilles femmes qui le préparaient mourraient ensuite des émanations toxiques émanant du curare. Chez les Nambikwara, le chef de la tribu est le seul à préparer le curare. Il est ailleurs préparé par un ancien, le « maître du poison » (amo del curare).
+Sont utilisées dans la préparation du curare : Les feuilles (curare de feuilles par exemple du S. toxifera et S. lethalis des Ticunas), ou bien l'écorce des tiges râpées (curare d'écorce ou Curare de Bejuco ) ou encore l'écorce des racines (curare de racine ou Curare de Raiz). En général, on fait infuser l'écorce coupée en petits morceaux ou broyée ; on concentre la liqueur afin que le curare devienne assez épais pour s'attacher aux flèches ; dans le même but, on y ajoute aussi un suc gluant et mucilagineux, fourni par une plante bulbeuse appelée Muramu ou par un arbre nommé Kiracaguero, suivant Humboldt. Quelques auteurs disent qu'on y introduisait également du venin de certains serpents, une tête de grenouille, des fourmis, des insectes (Les indiens Matis invoquent les mygales et les fourmis (paraponera clavata) dans la préparation du curare, sans toutefois les incorporer au poison), des piments, des toxines de grenouilles
 La préparation du curare fut décrite par Alexander von Humboldt : 
-«  « Lorsque nous arrivâmes à l'Esmeralda, la plupart des Indiens revenaient d'une excursion qu'ils avaient faite à l'est, au-delà du Rio Padamo, pour recueillir les Juvias ou fruits du Bertholletia[41], et la Liane qui donne le curare. Ce retour était célébré par une fête qu'on appelle dans la mission la Festa de las Jouvias, et qui ressemble à nos fêtes des moissons et des vendanges.... On donne à la liane (Bejuco) dont on se sert à l'Esmeralda pour la préparation du poison, le même nom que dans les forêts de Javila. C'est le Bejuco de Mavacure, que l'on recueille abondamment à l'est de la mission, sur la rive gauche de l'Orénoque, au-delà du Rio-Amaguaca, dans les terrains montueux et granitiques de Guanaya et de Yumariquin. On emploie indifféremment le Mavacure frais ou desséché depuis plusieurs semaines. Le suc de la Liane récemment cueillie, n'est pas regardé comme vénéneux ; peut-être n'agit-il d'une manière sensible que lorsqu'il est fortement concentré. C'est l'écorce et une partie de l'aubier qui renferment ce terrible poison. On râcle avec un couteau des branches de Mavacure de quatre à cinq lignes de diamètre; l'écorce enlevée est écrasée et réduite en filaments très minces sur une pierre à broyer de la farine de manioc. Le suc vénéneux étant jaune, toute cette masse filandreuse prend la même couleur. On la jette dans un entonnoir de neuf pouces de haut et de quatre pouces d'ouverture. Cet entonnoir est, de tous les ustensiles du laboratoire indien, celui que le « maître du poison » (c'est le titre que l'on donne au vieux Indien qui est chargé de la préparation du curare), amo del Curare, roulée en cornet sur elle-même, et placée dans un autre cornet plus fort de feuilles de palmier. Tout cet appareil était soutenu par un échafaudage léger de pétioles et de rachis de palmier. On commence à faire une infusion à froid en versant de l'eau sur la matière filandreuse, qui est l'écorce broyée du Mavacure. Une eau jaunâtre filtre pendant plusieurs heures, goutte par goutte, à travers le Yembudo ou entonnoir de feuillage. Cette eau filtrée est la liqueur vénéneuse, mais elle n'acquiert de la force que lorsqu'elle est concentrée, par évaporation, à la manière des mélasses, dans un grand vase d'argile. L'Indien nous engageait de temps en temps à goûter le liquide. On juge d'après le goût plus ou moins amer si la concentration par le feu a été poussée assez loin. Il n'y a aucun danger à cette opération, le curare n'étant délétère que lorsqu'il entre immédiatement en contact avec le sang. Aussi les vapeurs qui se dégagent de la chaudière ne sont-elles pas nuisibles, quoi qu'en aient dit les missionnaires de l'Orénoque. Le suc le plus concentré du Mavacure n'est pas assez épais pour s'attacher aux flèches. Ce n'est donc que pour donner du corps au poison que l'on verse, dans l'infusion concentrée, un autre suc végétal extrêmement gluant et tiré d'un arbre à larges feuilles, appelé Kiracaguero. Comme cet arbre croit à un très grand éloignement de l'Esmeralda, et qu'à cette époque il était tout aussi dépourvu de fleurs et de fruits que le Bejuco de Mavacure, je ne suis pas en état de le déterminer botaniquement.... Au moment où le suc gluant de l'arbre Kiracaguero est versé dans la liqueur vénéneuse bien concentrée, et tenue en ébullition, celle-ci se noircit et se coagule en une masse de la consistance du goudron ou d'un sirop épais. C'est cette masse qui est le curare du commerce   »
-— Humboldt et A. Bonpland, Voyage aux régions équinoxiales du nouveau continent, 1799 p. 547-566
-Usage
-Les indiens s'en servent pour en enduire les pointes de flèches, notamment de sarbacanes, arme qui ne fonctionne que grâce à ce poison : Le gibier est empoisonné, atteint de paralysie musculaire et meurt par asphyxie peu après avoir été touché sans effrayer les autres proies éventuelles d'où son nom indien : « La mort qui tue tout bas ». La consommation de la viande est ensuite possible car le curare ne provoque pas d'empoisonnement par ingestion[43]. Les tribus d'Amazonie, et les Jivaros, n'emploient pas le curare contre l'être humain. Les indiens l'utilisaient aussi comme stomachique (Humboldt).
-Commerce
-Le curare était vendu dans le commerce : « On vend le curare dans des fruits de Crescentia ; mais comme sa préparation est entre les mains d'un petit nombre de familles, et que la quantité de poison, qui est attachée à chaque flèche, est infiniment petite, le curare de première qualité, celui de l'Esmeralda et de Mandavaca, se vend à un prix extrêmement élevé » (Humboldt).
-Il circulait aussi sous la forme d'un œuf et était utilisé comme monnaie d'échange chez les indiens piaroas, spécialistes du curare fuerte dont ils détiennent le monopole, et qu'ils échangent contre des sarbacanes, des arcs et des flèches, des poteries aux indiens Guaharibo[44] On l'échange aussi avec le tabac et le sel[45] Les missionnaires en firent un moyen de paiement des travailleurs indiens[46].
+«  « Lorsque nous arrivâmes à l'Esmeralda, la plupart des Indiens revenaient d'une excursion qu'ils avaient faite à l'est, au-delà du Rio Padamo, pour recueillir les Juvias ou fruits du Bertholletia, et la Liane qui donne le curare. Ce retour était célébré par une fête qu'on appelle dans la mission la Festa de las Jouvias, et qui ressemble à nos fêtes des moissons et des vendanges.... On donne à la liane (Bejuco) dont on se sert à l'Esmeralda pour la préparation du poison, le même nom que dans les forêts de Javila. C'est le Bejuco de Mavacure, que l'on recueille abondamment à l'est de la mission, sur la rive gauche de l'Orénoque, au-delà du Rio-Amaguaca, dans les terrains montueux et granitiques de Guanaya et de Yumariquin. On emploie indifféremment le Mavacure frais ou desséché depuis plusieurs semaines. Le suc de la Liane récemment cueillie, n'est pas regardé comme vénéneux ; peut-être n'agit-il d'une manière sensible que lorsqu'il est fortement concentré. C'est l'écorce et une partie de l'aubier qui renferment ce terrible poison. On râcle avec un couteau des branches de Mavacure de quatre à cinq lignes de diamètre; l'écorce enlevée est écrasée et réduite en filaments très minces sur une pierre à broyer de la farine de manioc. Le suc vénéneux étant jaune, toute cette masse filandreuse prend la même couleur. On la jette dans un entonnoir de neuf pouces de haut et de quatre pouces d'ouverture. Cet entonnoir est, de tous les ustensiles du laboratoire indien, celui que le « maître du poison » (c'est le titre que l'on donne au vieux Indien qui est chargé de la préparation du curare), amo del Curare, roulée en cornet sur elle-même, et placée dans un autre cornet plus fort de feuilles de palmier. Tout cet appareil était soutenu par un échafaudage léger de pétioles et de rachis de palmier. On commence à faire une infusion à froid en versant de l'eau sur la matière filandreuse, qui est l'écorce broyée du Mavacure. Une eau jaunâtre filtre pendant plusieurs heures, goutte par goutte, à travers le Yembudo ou entonnoir de feuillage. Cette eau filtrée est la liqueur vénéneuse, mais elle n'acquiert de la force que lorsqu'elle est concentrée, par évaporation, à la manière des mélasses, dans un grand vase d'argile. L'Indien nous engageait de temps en temps à goûter le liquide. On juge d'après le goût plus ou moins amer si la concentration par le feu a été poussée assez loin. Il n'y a aucun danger à cette opération, le curare n'étant délétère que lorsqu'il entre immédiatement en contact avec le sang. Aussi les vapeurs qui se dégagent de la chaudière ne sont-elles pas nuisibles, quoi qu'en aient dit les missionnaires de l'Orénoque. Le suc le plus concentré du Mavacure n'est pas assez épais pour s'attacher aux flèches. Ce n'est donc que pour donner du corps au poison que l'on verse, dans l'infusion concentrée, un autre suc végétal extrêmement gluant et tiré d'un arbre à larges feuilles, appelé Kiracaguero. Comme cet arbre croit à un très grand éloignement de l'Esmeralda, et qu'à cette époque il était tout aussi dépourvu de fleurs et de fruits que le Bejuco de Mavacure, je ne suis pas en état de le déterminer botaniquement.... Au moment où le suc gluant de l'arbre Kiracaguero est versé dans la liqueur vénéneuse bien concentrée, et tenue en ébullition, celle-ci se noircit et se coagule en une masse de la consistance du goudron ou d'un sirop épais. C'est cette masse qui est le curare du commerce   »
+— Humboldt et A. Bonpland, Voyage aux régions équinoxiales du nouveau continent, 1799 p. 547-566</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation, fabrication et commerce indigène</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les indiens s'en servent pour en enduire les pointes de flèches, notamment de sarbacanes, arme qui ne fonctionne que grâce à ce poison : Le gibier est empoisonné, atteint de paralysie musculaire et meurt par asphyxie peu après avoir été touché sans effrayer les autres proies éventuelles d'où son nom indien : « La mort qui tue tout bas ». La consommation de la viande est ensuite possible car le curare ne provoque pas d'empoisonnement par ingestion. Les tribus d'Amazonie, et les Jivaros, n'emploient pas le curare contre l'être humain. Les indiens l'utilisaient aussi comme stomachique (Humboldt).
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation, fabrication et commerce indigène</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le curare était vendu dans le commerce : « On vend le curare dans des fruits de Crescentia ; mais comme sa préparation est entre les mains d'un petit nombre de familles, et que la quantité de poison, qui est attachée à chaque flèche, est infiniment petite, le curare de première qualité, celui de l'Esmeralda et de Mandavaca, se vend à un prix extrêmement élevé » (Humboldt).
+Il circulait aussi sous la forme d'un œuf et était utilisé comme monnaie d'échange chez les indiens piaroas, spécialistes du curare fuerte dont ils détiennent le monopole, et qu'ils échangent contre des sarbacanes, des arcs et des flèches, des poteries aux indiens Guaharibo On l'échange aussi avec le tabac et le sel Les missionnaires en firent un moyen de paiement des travailleurs indiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Liste des tribus indiennes utilisant le curare</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[47]
-1. Vérifier les noms des tribus (l'orthographe ou le nom a changé) Yamcos, Orjones, Yagos, Pebas, Miranhas, Kueretou[48], etc. les indigènes Quichua-Lamista du Moquiretares.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1. Vérifier les noms des tribus (l'orthographe ou le nom a changé) Yamcos, Orjones, Yagos, Pebas, Miranhas, Kueretou, etc. les indigènes Quichua-Lamista du Moquiretares.
 2. Liste non exhaustive
 Achagua (Maipurean Arawakan)
 Andaquies
@@ -747,15 +917,15 @@
 Chiquitos
 Cabixi (Rondônia, Brésil)
 Cabres (Gaberres)
-Canichanas[49]
-Guajibos[50]*
+Canichanas
+Guajibos*
 Guaros (Venezuela)
 Guinan
 Jabahani
 Jivaros
 Jupichiya
 Juri
-Huaoranis[51]
+Huaoranis
 Kachúyana
 Kamejeya
 Kayapos
@@ -764,7 +934,7 @@
 Mainatari
 Makiritari
 Maiongkongs
-Matis[52]
+Matis
 Mayoruma
 Nambikwara
 Nukak
@@ -785,33 +955,35 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Curare_en_Amazonie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Fiction</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Hergé fait allusion aux fléchettes enduite de curare dans L'Oreille cassée. Joseph Grelier fait paraître dans le Journal de Tintin, parmi plusieurs articles sur l'Amazonie, dont[53]  La Vérité sur le curare.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Hergé fait allusion aux fléchettes enduite de curare dans L'Oreille cassée. Joseph Grelier fait paraître dans le Journal de Tintin, parmi plusieurs articles sur l'Amazonie, dont  La Vérité sur le curare.
 Dans Batman, la relève, Curare est une tueuse à gage, membre de la Société des Assassins, armée d'un sabre aiguisé au laser, et qui a pour mission d'assassiner le procureur de Gotham City. Après que Terry McGinnis ait fait échouer sa tentative, elle devient une cible de la Société elle-même.
 Dans la série Arrow, le curare est utilisé par un des personnages pour tuer ses victimes (Season 1 épisode "Lone Gunmen", "Dead to Rights").</t>
         </is>
